--- a/medicine/Psychotrope/Othello_(cépage)/Othello_(cépage).xlsx
+++ b/medicine/Psychotrope/Othello_(cépage)/Othello_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Othello_(c%C3%A9page)</t>
+          <t>Othello_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'othello est un cépage obtenu par croisement entre le Clinton et le Muscat de Hambourg. Il a été obtenu au Canada en 1859 par Charles Arnold. Aujourd'hui, l'Othello a pratiquement disparu.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Othello_(c%C3%A9page)</t>
+          <t>Othello_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,14 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-L'Othello est un cépage franco-américain obtenu par Charles Arnold en Ontario en 1859, puis introduit en France par Planchon. Avec ses collaborateurs, ce dernier avait étudié en 1873, à la demande du gouvernement français, les vignes américaines dans une optique de restauration du vignoble français[1]. Il est employé après 1874 d'abord comme producteur direct, puis comme porte-greffe en raison de sa grande résistance[2] au phylloxéra[3].
-Il connaît alors en Europe et en France un succès important[2], ses boutures se vendant 1 à 2 francs-or[3].
-Interdiction du cépage à la vinification en 1935
-Comme cinq autres cépages hybrides (Noah, Isabelle, Jacquez, Clinton et Herbemont), et dans un contexte de surproduction, l'Othello est interdit à la vinification en 1935[4]. L'interdiction repose sur le taux de méthanol du vin issu de ces cépages, qui serait plus élevé qu’avec d’autres cépages et nuirait au nerf optique[5].
-Promotion de l'Othello
-Plusieurs associations, dont le réseau Fruits oubliés[6] militent pour un retour de ces cépages[7] et la levée de leur interdiction[4].
-Des parcelles de culture de l'Othello subsistent, notamment à Miradoux, et la production est vendue comme raisin de table sur le marché d'Agen[1]. En raisin de table, il est de très bonne garde et peut donner des rendements considérables[2]. 
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Othello est un cépage franco-américain obtenu par Charles Arnold en Ontario en 1859, puis introduit en France par Planchon. Avec ses collaborateurs, ce dernier avait étudié en 1873, à la demande du gouvernement français, les vignes américaines dans une optique de restauration du vignoble français. Il est employé après 1874 d'abord comme producteur direct, puis comme porte-greffe en raison de sa grande résistance au phylloxéra.
+Il connaît alors en Europe et en France un succès important, ses boutures se vendant 1 à 2 francs-or.
 </t>
         </is>
       </c>
@@ -532,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Othello_(c%C3%A9page)</t>
+          <t>Othello_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,16 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Othello est un cépage noir hybride américain, issu du croisement Clinton  X Black Hamburg[3].
-Très fertile et très productif, son fruit se développe bien après les gelées printanières[3]. Il est a priori relativement sensible à l'oïdium[2], comme au soufre employé pour traiter ce parasite[1], mais montre une bonne résistance aux maladies et ne demande que peu de traitements[3]. Il est moyennement résistant au phylloxéra.
-Le vin issu de l'Othello est foxé, bien coloré et alcoolique[3]. Il est particulièrement foxé lorsqu'il est cultivé sur coteaux calcaires[2].
-Il a servi pour obtenir d'autres hybrides créés par Albert Seibel et Georges Couderc. 
-Sa feuille est vert jaunâtre, lisse. Sa grappe est de taille moyenne, cylindrique, comprimée. Les raisins sont légèrement étirés, bleu foncé, la chair est également bleue[8],[2].
+          <t>Interdiction du cépage à la vinification en 1935</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme cinq autres cépages hybrides (Noah, Isabelle, Jacquez, Clinton et Herbemont), et dans un contexte de surproduction, l'Othello est interdit à la vinification en 1935. L'interdiction repose sur le taux de méthanol du vin issu de ces cépages, qui serait plus élevé qu’avec d’autres cépages et nuirait au nerf optique.
 </t>
         </is>
       </c>
@@ -567,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Othello_(c%C3%A9page)</t>
+          <t>Othello_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,12 +596,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Promotion de l'Othello</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs associations, dont le réseau Fruits oubliés militent pour un retour de ces cépages et la levée de leur interdiction.
+Des parcelles de culture de l'Othello subsistent, notamment à Miradoux, et la production est vendue comme raisin de table sur le marché d'Agen. En raisin de table, il est de très bonne garde et peut donner des rendements considérables. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Othello_(cépage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Othello_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Othello est un cépage noir hybride américain, issu du croisement Clinton  X Black Hamburg.
+Très fertile et très productif, son fruit se développe bien après les gelées printanières. Il est a priori relativement sensible à l'oïdium, comme au soufre employé pour traiter ce parasite, mais montre une bonne résistance aux maladies et ne demande que peu de traitements. Il est moyennement résistant au phylloxéra.
+Le vin issu de l'Othello est foxé, bien coloré et alcoolique. Il est particulièrement foxé lorsqu'il est cultivé sur coteaux calcaires.
+Il a servi pour obtenir d'autres hybrides créés par Albert Seibel et Georges Couderc. 
+Sa feuille est vert jaunâtre, lisse. Sa grappe est de taille moyenne, cylindrique, comprimée. Les raisins sont légèrement étirés, bleu foncé, la chair est également bleue,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Othello_(cépage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Othello_(c%C3%A9page)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les autres appellations de l'Othello sont :  Arnold's hybrid, Arnold's n° 1, Canadian hybrid, Canadian Hamburg, Challenge, Otelló, Otelo[3],[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les autres appellations de l'Othello sont :  Arnold's hybrid, Arnold's n° 1, Canadian hybrid, Canadian Hamburg, Challenge, Otelló, Otelo,.
 </t>
         </is>
       </c>
